--- a/tests/fixtures/verification/testing/semantic/00004/00004-wc_lang.xlsx
+++ b/tests/fixtures/verification/testing/semantic/00004/00004-wc_lang.xlsx
@@ -2853,7 +2853,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3071,7 +3071,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3287,7 +3287,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3666,7 +3666,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3978,7 +3978,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4249,7 +4249,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4485,7 +4485,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4740,7 +4740,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5019,7 +5019,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5237,7 +5237,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5770,7 +5770,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6092,7 +6092,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6257,7 +6257,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6593,7 +6593,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6990,7 +6990,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7276,7 +7276,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7649,7 +7649,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7822,7 +7822,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8001,7 +8001,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8212,7 +8212,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8712,7 +8712,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9082,7 +9082,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9346,7 +9346,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
